--- a/Calculs/PH2/DataBase_PH2_File B_Divers_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_File B_Divers_V6_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,7 +734,7 @@
         <v>2.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0013286</v>
+        <v>0.0026858</v>
       </c>
       <c r="N2" t="n">
         <v>0.06</v>
@@ -798,55 +798,55 @@
         <v>51.74375</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.94521514371626</v>
+        <v>8.208593944642855</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.647303710105652</v>
+        <v>5.499613793670469</v>
       </c>
       <c r="AK2" t="n">
-        <v>-322.7539374337092</v>
+        <v>-163.3479383664851</v>
       </c>
       <c r="AL2" t="n">
-        <v>-166.2150460459522</v>
+        <v>-99.77501652602754</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-263.7652031615244</v>
+        <v>-162.0555921845154</v>
       </c>
       <c r="AO2" t="n">
         <v>166.70625</v>
       </c>
       <c r="AP2" t="n">
-        <v>98.46305675553269</v>
+        <v>185.5750585920554</v>
       </c>
       <c r="AQ2" t="n">
-        <v>206.9011598770544</v>
+        <v>288.6126082307594</v>
       </c>
       <c r="AR2" t="n">
-        <v>14.54841788195548</v>
+        <v>11.9854726041368</v>
       </c>
       <c r="AS2" t="n">
-        <v>-435.9724462130875</v>
+        <v>-331.7309779181598</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1233.948506780509</v>
+        <v>-566.6861391894464</v>
       </c>
       <c r="AV2" t="n">
         <v>120.275</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>10.09505764555571</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>-297.7264251587221</v>
       </c>
       <c r="AY2" t="n">
-        <v>98.46305675553269</v>
+        <v>185.5750585920554</v>
       </c>
     </row>
     <row r="3">
@@ -2476,10 +2476,10 @@
         <v>0.215</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0005120000000000001</v>
+        <v>0.0017325</v>
       </c>
       <c r="N13" t="n">
         <v>0.04</v>
@@ -2543,55 +2543,55 @@
         <v>32.55</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.798091583906563</v>
+        <v>5.313792675980963</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.656464319489616</v>
+        <v>2.974909154091076</v>
       </c>
       <c r="AK13" t="n">
-        <v>-613.829162420315</v>
+        <v>-185.2096204799089</v>
       </c>
       <c r="AL13" t="n">
-        <v>-238.4694295834554</v>
+        <v>-96.67586682343013</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-329.7135629603851</v>
+        <v>-135.4032402707992</v>
       </c>
       <c r="AO13" t="n">
         <v>120.7125</v>
       </c>
       <c r="AP13" t="n">
-        <v>41.15083636363617</v>
+        <v>136.1898184211496</v>
       </c>
       <c r="AQ13" t="n">
-        <v>105.3256963231016</v>
+        <v>191.9086559981254</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>7.735410665158958</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-366.1633666870147</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-521.793250243221</v>
       </c>
       <c r="AV13" t="n">
         <v>85.8</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>6.124985854109921</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>-304.9527121681818</v>
       </c>
       <c r="AY13" t="n">
-        <v>41.15083636363617</v>
+        <v>136.1898184211496</v>
       </c>
     </row>
     <row r="14">
@@ -2794,10 +2794,10 @@
         <v>0.215</v>
       </c>
       <c r="L15" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001694</v>
+        <v>0.0025137</v>
       </c>
       <c r="N15" t="n">
         <v>0.04</v>
@@ -2861,55 +2861,55 @@
         <v>46.27</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.566704684158298</v>
+        <v>6.785565763475597</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.316985201028243</v>
+        <v>3.525176714209665</v>
       </c>
       <c r="AK15" t="n">
-        <v>-298.5882626712588</v>
+        <v>-202.8120507130034</v>
       </c>
       <c r="AL15" t="n">
-        <v>-140.0839634968055</v>
+        <v>-99.90215026374965</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-196.2102816015499</v>
+        <v>-140.6424387561985</v>
       </c>
       <c r="AO15" t="n">
         <v>182.724</v>
       </c>
       <c r="AP15" t="n">
-        <v>133.1633780117905</v>
+        <v>192.2271963950269</v>
       </c>
       <c r="AQ15" t="n">
-        <v>189.0799759745517</v>
+        <v>246.5664667935177</v>
       </c>
       <c r="AR15" t="n">
-        <v>14.09987189399453</v>
+        <v>9.560688223968702</v>
       </c>
       <c r="AS15" t="n">
-        <v>-437.6148960179226</v>
+        <v>-405.0558882537657</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-1701.280357599228</v>
+        <v>-582.3062591978357</v>
       </c>
       <c r="AV15" t="n">
         <v>130.21</v>
       </c>
       <c r="AW15" t="n">
-        <v>16.66666666666667</v>
+        <v>7.474989709501856</v>
       </c>
       <c r="AX15" t="n">
-        <v>-454.1535481540234</v>
+        <v>-322.6307120025996</v>
       </c>
       <c r="AY15" t="n">
-        <v>133.1633780117905</v>
+        <v>192.2271963950269</v>
       </c>
     </row>
     <row r="16">
@@ -3112,10 +3112,10 @@
         <v>0.215</v>
       </c>
       <c r="L17" t="n">
-        <v>4.4</v>
+        <v>5.45</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0022572</v>
+        <v>0.00279585</v>
       </c>
       <c r="N17" t="n">
         <v>0.04</v>
@@ -3179,55 +3179,55 @@
         <v>48.88</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.774962086275354</v>
+        <v>6.277033610937905</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.121748348609297</v>
+        <v>3.36687493219618</v>
       </c>
       <c r="AK17" t="n">
-        <v>-232.3838659734222</v>
+        <v>-187.6126624372583</v>
       </c>
       <c r="AL17" t="n">
-        <v>-116.1232378387775</v>
+        <v>-95.91858280062259</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-163.5171621688332</v>
+        <v>-135.0060291129361</v>
       </c>
       <c r="AO17" t="n">
         <v>189.91275</v>
       </c>
       <c r="AP17" t="n">
-        <v>172.6121763547179</v>
+        <v>213.8037184393665</v>
       </c>
       <c r="AQ17" t="n">
-        <v>227.9870069719098</v>
+        <v>267.0015961122987</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.8581868931357</v>
+        <v>9.059431819274955</v>
       </c>
       <c r="AS17" t="n">
-        <v>-435.4969552475054</v>
+        <v>-382.4568275402141</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-899.6109164180937</v>
+        <v>-549.4885499692449</v>
       </c>
       <c r="AV17" t="n">
         <v>135.245</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.516758520398723</v>
+        <v>7.022710764468481</v>
       </c>
       <c r="AX17" t="n">
-        <v>-373.5556727913245</v>
+        <v>-301.1793046214071</v>
       </c>
       <c r="AY17" t="n">
-        <v>172.6121763547179</v>
+        <v>213.8037184393665</v>
       </c>
     </row>
     <row r="18">
@@ -3430,10 +3430,10 @@
         <v>0.215</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002565</v>
+        <v>0.00279585</v>
       </c>
       <c r="N19" t="n">
         <v>0.04</v>
@@ -3497,55 +3497,55 @@
         <v>39.76</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.757424017433613</v>
+        <v>5.282040382966614</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.971867360229204</v>
+        <v>2.738685501311787</v>
       </c>
       <c r="AK19" t="n">
-        <v>-172.0821833435331</v>
+        <v>-157.8735627004891</v>
       </c>
       <c r="AL19" t="n">
-        <v>-84.3091491267303</v>
+        <v>-78.02215327644748</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-118.6856450740723</v>
+        <v>-109.8166881655143</v>
       </c>
       <c r="AO19" t="n">
         <v>157.75125</v>
       </c>
       <c r="AP19" t="n">
-        <v>196.1502004030883</v>
+        <v>213.8037184393665</v>
       </c>
       <c r="AQ19" t="n">
-        <v>250.2820971834475</v>
+        <v>267.0015961122987</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.26607569131458</v>
+        <v>7.683601179280207</v>
       </c>
       <c r="AS19" t="n">
-        <v>-342.9858964108154</v>
+        <v>-317.25389861193</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-492.6912255856492</v>
+        <v>-455.4823693943369</v>
       </c>
       <c r="AV19" t="n">
         <v>112.435</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.413576808022013</v>
+        <v>5.919900156264702</v>
       </c>
       <c r="AX19" t="n">
-        <v>-272.7895894004354</v>
+        <v>-250.1736489682405</v>
       </c>
       <c r="AY19" t="n">
-        <v>196.1502004030883</v>
+        <v>213.8037184393665</v>
       </c>
     </row>
     <row r="20">
@@ -3906,7 +3906,7 @@
         <v>4.6</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0013786</v>
+        <v>0.0027358</v>
       </c>
       <c r="N22" t="n">
         <v>0.06</v>
@@ -3970,55 +3970,55 @@
         <v>52.84375</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.088652583533545</v>
+        <v>6.029727250947571</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.493487748297797</v>
+        <v>3.785442520219101</v>
       </c>
       <c r="AK22" t="n">
-        <v>-318.079710812577</v>
+        <v>-163.0829265379344</v>
       </c>
       <c r="AL22" t="n">
-        <v>-142.1074497232459</v>
+        <v>-90.53477449719979</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>-222.574220432448</v>
+        <v>-144.0752818418452</v>
       </c>
       <c r="AO22" t="n">
         <v>171.73125</v>
       </c>
       <c r="AP22" t="n">
-        <v>106.2952133067633</v>
+        <v>200.0725731101373</v>
       </c>
       <c r="AQ22" t="n">
-        <v>272.995821992559</v>
+        <v>360.4509257254639</v>
       </c>
       <c r="AR22" t="n">
-        <v>10.11996278870651</v>
+        <v>8.641209390447026</v>
       </c>
       <c r="AS22" t="n">
-        <v>-435.0676719936189</v>
+        <v>-300.3205232661968</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>-821.6903511658421</v>
+        <v>-494.4797493992384</v>
       </c>
       <c r="AV22" t="n">
         <v>123.875</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>7.484041777897693</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>-292.5017113888012</v>
       </c>
       <c r="AY22" t="n">
-        <v>106.2952133067633</v>
+        <v>200.0725731101373</v>
       </c>
     </row>
     <row r="23">
@@ -4062,10 +4062,10 @@
         <v>0.23</v>
       </c>
       <c r="L23" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0005888</v>
+        <v>0.00119905</v>
       </c>
       <c r="N23" t="n">
         <v>0.04</v>
@@ -4129,43 +4129,43 @@
         <v>57.42124999999999</v>
       </c>
       <c r="AI23" t="n">
-        <v>6.918936886466896</v>
+        <v>4.848522748806906</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5.8778121456885</v>
+        <v>4.737041717260625</v>
       </c>
       <c r="AK23" t="n">
-        <v>-450.6966372771192</v>
+        <v>-223.7588737905916</v>
       </c>
       <c r="AL23" t="n">
-        <v>-293.2580723593751</v>
+        <v>-188.0930553560476</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-399.1453153937205</v>
+        <v>-257.4311802127614</v>
       </c>
       <c r="AO23" t="n">
         <v>148.807125</v>
       </c>
       <c r="AP23" t="n">
-        <v>51.43854545454553</v>
+        <v>103.9336049673744</v>
       </c>
       <c r="AQ23" t="n">
-        <v>167.1207094903226</v>
+        <v>214.3377607110064</v>
       </c>
       <c r="AR23" t="n">
-        <v>11.42959628749822</v>
+        <v>9.183440419707983</v>
       </c>
       <c r="AS23" t="n">
-        <v>-437.4248945713066</v>
+        <v>-435.4992998072885</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-1587.217028739394</v>
+        <v>-871.950290072414</v>
       </c>
       <c r="AV23" t="n">
         <v>106.3225</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>51.43854545454553</v>
+        <v>103.9336049673744</v>
       </c>
     </row>
     <row r="24">
@@ -4380,10 +4380,10 @@
         <v>0.23</v>
       </c>
       <c r="L25" t="n">
-        <v>4.800000000000001</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001847</v>
+        <v>0.00225685</v>
       </c>
       <c r="N25" t="n">
         <v>0.05</v>
@@ -4447,55 +4447,55 @@
         <v>61.75</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.554167246029986</v>
+        <v>4.932180962300306</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4.901453793685393</v>
+        <v>4.455817332378516</v>
       </c>
       <c r="AK25" t="n">
-        <v>-196.3643808904112</v>
+        <v>-161.4032339349033</v>
       </c>
       <c r="AL25" t="n">
-        <v>-158.7039930613045</v>
+        <v>-134.9357298539742</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-232.58358144764</v>
+        <v>-198.3107520623589</v>
       </c>
       <c r="AO25" t="n">
         <v>173.2785</v>
       </c>
       <c r="AP25" t="n">
-        <v>149.7671226959615</v>
+        <v>180.6660451465156</v>
       </c>
       <c r="AQ25" t="n">
-        <v>232.0231746871127</v>
+        <v>261.6496220921175</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.862137322626308</v>
+        <v>8.680630926423373</v>
       </c>
       <c r="AS25" t="n">
-        <v>-435.1115466596167</v>
+        <v>-387.0160473597062</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-782.381702745895</v>
+        <v>-581.590674609046</v>
       </c>
       <c r="AV25" t="n">
         <v>123.715</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.744725316337807</v>
+        <v>6.993553337285306</v>
       </c>
       <c r="AX25" t="n">
-        <v>-401.1135178920595</v>
+        <v>-329.8929770535637</v>
       </c>
       <c r="AY25" t="n">
-        <v>149.7671226959615</v>
+        <v>180.6660451465156</v>
       </c>
     </row>
     <row r="26">
@@ -4698,10 +4698,10 @@
         <v>0.23</v>
       </c>
       <c r="L27" t="n">
-        <v>4.800000000000001</v>
+        <v>5.325</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0014586</v>
+        <v>0.001727925</v>
       </c>
       <c r="N27" t="n">
         <v>0.04</v>
@@ -4765,55 +4765,55 @@
         <v>62.39</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.684302638780433</v>
+        <v>4.980482595664443</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.697837085436661</v>
+        <v>4.217378297542964</v>
       </c>
       <c r="AK27" t="n">
-        <v>-235.9217564566291</v>
+        <v>-199.4042446016836</v>
       </c>
       <c r="AL27" t="n">
-        <v>-165.3921215840859</v>
+        <v>-146.6120046922765</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-227.1454061710631</v>
+        <v>-201.4312159000935</v>
       </c>
       <c r="AO27" t="n">
         <v>174.981375</v>
       </c>
       <c r="AP27" t="n">
-        <v>126.027698260868</v>
+        <v>149.1476959189727</v>
       </c>
       <c r="AQ27" t="n">
-        <v>268.7133229207808</v>
+        <v>289.9492938609911</v>
       </c>
       <c r="AR27" t="n">
-        <v>9.493097446075602</v>
+        <v>8.206352647211396</v>
       </c>
       <c r="AS27" t="n">
-        <v>-435.2014124913345</v>
+        <v>-418.6996962349422</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-764.1664512375288</v>
+        <v>-584.1657115150043</v>
       </c>
       <c r="AV27" t="n">
         <v>124.8225</v>
       </c>
       <c r="AW27" t="n">
-        <v>16.66666666666667</v>
+        <v>7.000805070348284</v>
       </c>
       <c r="AX27" t="n">
-        <v>-461.4043261831993</v>
+        <v>-406.6954612355345</v>
       </c>
       <c r="AY27" t="n">
-        <v>126.027698260868</v>
+        <v>149.1476959189727</v>
       </c>
     </row>
     <row r="28">
@@ -5016,10 +5016,10 @@
         <v>0.23</v>
       </c>
       <c r="L29" t="n">
-        <v>5.1</v>
+        <v>5.325</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0016125</v>
+        <v>0.001727925</v>
       </c>
       <c r="N29" t="n">
         <v>0.04</v>
@@ -5083,55 +5083,55 @@
         <v>57.73</v>
       </c>
       <c r="AI29" t="n">
-        <v>4.723898116856447</v>
+        <v>4.474317344080879</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4.081205348323181</v>
+        <v>3.902376167930039</v>
       </c>
       <c r="AK29" t="n">
-        <v>-191.8667183536518</v>
+        <v>-179.1388390517268</v>
       </c>
       <c r="AL29" t="n">
-        <v>-142.600464117904</v>
+        <v>-135.6613404533598</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-195.8891581478133</v>
+        <v>-186.3860249064336</v>
       </c>
       <c r="AO29" t="n">
         <v>159.350625</v>
       </c>
       <c r="AP29" t="n">
-        <v>139.2391254940712</v>
+        <v>149.1476959189727</v>
       </c>
       <c r="AQ29" t="n">
-        <v>280.848283555045</v>
+        <v>289.9492938609911</v>
       </c>
       <c r="AR29" t="n">
-        <v>7.852158054928179</v>
+        <v>7.54568485901792</v>
       </c>
       <c r="AS29" t="n">
-        <v>-400.5889796356291</v>
+        <v>-381.1324810450135</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-558.6825190160961</v>
+        <v>-531.6135503155612</v>
       </c>
       <c r="AV29" t="n">
         <v>113.8175</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.75820465144887</v>
+        <v>6.432219434014914</v>
       </c>
       <c r="AX29" t="n">
-        <v>-397.0343688164936</v>
+        <v>-370.7050129014955</v>
       </c>
       <c r="AY29" t="n">
-        <v>139.2391254940712</v>
+        <v>149.1476959189727</v>
       </c>
     </row>
     <row r="30">
@@ -5290,6 +5290,4764 @@
         <v>0</v>
       </c>
       <c r="AY30" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>500</v>
+      </c>
+      <c r="G31" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Appui 2</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>500</v>
+      </c>
+      <c r="G32" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0026858</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>34</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>91.375</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>91.375</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>166.70625</v>
+      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>120.275</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>91.375</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>10.94479192619048</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>3.071652878600342</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-217.7972511553135</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-55.72649793650821</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-90.51154224679301</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>166.70625</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>185.5750585920554</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>288.6126082307594</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>11.9854726041368</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>-331.7309779181598</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>-566.6861391894464</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>120.275</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>10.09505764555571</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>-297.7264251587221</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>185.5750585920554</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Travée 3</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>500</v>
+      </c>
+      <c r="G33" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0003328</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>44.55249999999999</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>44.55249999999999</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>88.450875</v>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="n">
+        <v>63.4225</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>44.55249999999999</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>10.33937303652004</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>3.125563258949051</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>-689.4086696931398</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-154.3270769031238</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-198.5006687451184</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>88.450875</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>30.62457169960479</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>111.7993426702749</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>10.96252984944467</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>-437.0098740488221</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>-1352.198625528654</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>63.4225</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>30.62457169960479</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Appui 3</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>500</v>
+      </c>
+      <c r="G34" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0021033</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>109</v>
+      </c>
+      <c r="W34" t="n">
+        <v>42</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>205.947</v>
+      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>14.12095568747922</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>5.019788326581918</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-322.2093337963183</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-108.0783452999877</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-173.2292269409579</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>205.947</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>149.2558498568302</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>200.2368439062047</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>-443.4229515762837</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>149.2558498568302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Travée 4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>500</v>
+      </c>
+      <c r="G35" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="W35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>81.91650000000001</v>
+      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>6.618676026924507</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.685875798465749</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>-234.0620250728683</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>-85.87375189019005</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-125.9150280197028</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>81.91650000000001</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>81.08960925461737</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>133.3709061916311</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>8.233796629446534</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>-385.0695161340017</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>-576.5200472976527</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>6.861251231565649</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>-350.7030523549304</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>81.08960925461737</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Appui 4</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>500</v>
+      </c>
+      <c r="G36" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>223.875</v>
+      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>161</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>15.54215351963003</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>5.308023697535865</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-354.9653857900809</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>-114.3730882619878</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-183.3083278577674</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>223.875</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>149.0463799216444</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>200.0284212147888</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>161</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>149.0463799216444</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Travée 5</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>500</v>
+      </c>
+      <c r="G37" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10</v>
+      </c>
+      <c r="V37" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>80.02500000000001</v>
+      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>8.965128408908308</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.819144767433393</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-600.7647862703852</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>-127.8024034678298</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-164.6257002578992</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>80.02500000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>30.36691304347836</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>146.4386993215995</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>8.691119333222787</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>-435.5288697002734</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>-829.9493420257033</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>30.36691304347836</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Appui 5</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>500</v>
+      </c>
+      <c r="G38" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>231.9</v>
+      </c>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>166.85</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>16.20352175450792</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>5.05205439763453</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>-370.0702958237013</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-103.1642021209296</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-165.995422169447</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>231.9</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>149.0463799216444</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>254.3778807765878</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>16.56727857431695</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>-436.5261346930356</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>-1503.924424818375</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>166.85</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>149.0463799216444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>25</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>500</v>
+      </c>
+      <c r="G39" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>80.47500000000001</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>9.547793281260004</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.773547706184996</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>-632.5068760903498</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-123.0188848271582</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-163.0886016183901</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>80.47500000000001</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>29.59813043468054</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>145.7061375704176</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>8.821984032029958</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-435.5093824088789</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>-848.2047565625685</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>29.59813043468054</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Appui 6</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>500</v>
+      </c>
+      <c r="G40" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>200.625</v>
+      </c>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>144</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>13.55804881499642</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>5.063976630982494</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>-309.6506556892194</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-109.1145554683332</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-174.8803587608586</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>200.625</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>149.0463799216444</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>200.0284212147888</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>144</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>15.96047163254208</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-437.4547978360408</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>149.0463799216444</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>500</v>
+      </c>
+      <c r="G41" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Appui 1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>500</v>
+      </c>
+      <c r="G42" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10</v>
+      </c>
+      <c r="V42" t="n">
+        <v>25</v>
+      </c>
+      <c r="W42" t="n">
+        <v>11</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.40553807533431</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.3504899506618299</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-317.4603174603175</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>-20.35294799542626</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>-30.92630208524459</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>7.338379446640375</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>119.4720221117207</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.180712969154629</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>-92.92183606543938</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>-142.8059763713589</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>9.262772332178892</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>-457.1428571428571</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7.338379446640375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Travée 2</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>500</v>
+      </c>
+      <c r="G43" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0017325</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>6</v>
+      </c>
+      <c r="V43" t="n">
+        <v>33</v>
+      </c>
+      <c r="W43" t="n">
+        <v>22</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>120.7125</v>
+      </c>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>5.313792675980963</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.974909154091076</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-185.2096204799089</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>-96.67586682343013</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>-135.4032402707992</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>120.7125</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>136.1898184211496</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>191.9086559981254</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>7.735410665158958</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>-366.1633666870147</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>-521.793250243221</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>6.124985854109921</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>-304.9527121681818</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>136.1898184211496</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Appui 2</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>500</v>
+      </c>
+      <c r="G44" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10</v>
+      </c>
+      <c r="V44" t="n">
+        <v>25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>15</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="n">
+        <v>7.200000000000001</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.164984267800886</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.430146757630427</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>-285.7142857142857</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>-24.97861799438677</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>-37.95500710461837</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>7.338379446640375</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>119.4720221117207</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.18942307287021</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>-93.6153034284669</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>-143.8720146703326</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>7.200000000000001</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>9.262772332178967</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>-457.1428571428573</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7.338379446640375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Travée 3</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>500</v>
+      </c>
+      <c r="G45" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0025137</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>55</v>
+      </c>
+      <c r="W45" t="n">
+        <v>33</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>182.724</v>
+      </c>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="n">
+        <v>130.21</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>6.785565763475597</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>3.525176714209665</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-202.8120507130034</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>-99.90215026374965</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>-140.6424387561985</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>182.724</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>192.2271963950269</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>246.5664667935177</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>9.560688223968702</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>-405.0558882537657</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>-582.3062591978357</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>130.21</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>7.474989709501856</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>-322.6307120025996</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>192.2271963950269</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Appui 3</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>500</v>
+      </c>
+      <c r="G46" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10</v>
+      </c>
+      <c r="V46" t="n">
+        <v>42</v>
+      </c>
+      <c r="W46" t="n">
+        <v>16</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4.619999999999997</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>4.619999999999997</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8.876999999999995</v>
+      </c>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>6.379999999999997</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>4.619999999999997</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.442080423818648</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.2715227751661655</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-328.8256227758006</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-14.83296612404012</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-25.4869832460547</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>8.876999999999995</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>6.546300395257781</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>118.9012665311783</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.009129803664754</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-74.43561666374234</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-129.9166061194993</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>6.379999999999997</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>8.975106661951235</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>-454.0925266903913</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>6.546300395257781</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Travée 4</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>500</v>
+      </c>
+      <c r="G47" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.00279585</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>55</v>
+      </c>
+      <c r="W47" t="n">
+        <v>35</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>86.36500000000001</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>86.36500000000001</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>189.91275</v>
+      </c>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="n">
+        <v>135.245</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>86.36500000000001</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>6.277033610937905</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>3.36687493219618</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-187.6126624372583</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-95.91858280062259</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-135.0060291129361</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>189.91275</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>213.8037184393665</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>267.0015961122987</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>9.059431819274955</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-382.4568275402141</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-549.4885499692449</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>135.245</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>7.022710764468481</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>-301.1793046214071</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>213.8037184393665</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Appui 4</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>25</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>500</v>
+      </c>
+      <c r="G48" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>10</v>
+      </c>
+      <c r="V48" t="n">
+        <v>30</v>
+      </c>
+      <c r="W48" t="n">
+        <v>16</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.845</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4.650000000000002</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>4.650000000000002</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>9.997500000000004</v>
+      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="n">
+        <v>7.130000000000003</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>4.650000000000002</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.937225995850803</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.3512293835077152</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-295.2380952380954</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-22.94755858333809</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-34.7632374507056</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>9.997500000000004</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>7.33837944664115</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>119.9197170397737</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.040600744114717</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-92.48830820433348</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-141.5071026278989</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>7.130000000000003</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>7.773693868751103</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>-452.6984126984129</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7.33837944664115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>File B' - 1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Travée 5</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>25</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>500</v>
+      </c>
+      <c r="G49" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.00279585</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>6</v>
+      </c>
+      <c r="V49" t="n">
+        <v>60</v>
+      </c>
+      <c r="W49" t="n">
+        <v>33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>72.675</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>72.675</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>157.75125</v>
+      </c>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="n">
+        <v>112.435</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>72.675</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>5.282040382966614</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.738685501311787</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-157.8735627004891</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-78.02215327644748</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-109.8166881655143</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>157.75125</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>213.8037184393665</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>267.0015961122987</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>7.683601179280207</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-317.25389861193</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-455.4823693943369</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>112.435</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>5.919900156264702</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>-250.1736489682405</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>213.8037184393665</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Appui 6</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>25</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>500</v>
+      </c>
+      <c r="G50" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>File B - 1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>25</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>500</v>
+      </c>
+      <c r="G51" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Appui 2</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>500</v>
+      </c>
+      <c r="G52" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0027358</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>15</v>
+      </c>
+      <c r="V52" t="n">
+        <v>120</v>
+      </c>
+      <c r="W52" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>93.875</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>93.875</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>171.73125</v>
+      </c>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="n">
+        <v>123.875</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>93.875</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>7.968895739103428</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.149038923365074</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-215.5306271340555</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-51.3976247884754</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-81.79318188537646</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>171.73125</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>200.0725731101373</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>360.4509257254639</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>8.641209390447026</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-300.3205232661968</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-494.4797493992384</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>123.875</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>7.484041777897693</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>-292.5017113888012</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>200.0725731101373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Travée 3</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>25</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>500</v>
+      </c>
+      <c r="G53" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.00119905</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10</v>
+      </c>
+      <c r="V53" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="W53" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>71.17749999999999</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>35.145</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>71.17749999999999</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>35.145</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>148.807125</v>
+      </c>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="n">
+        <v>106.3225</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>71.17749999999999</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>35.145</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>7.057196451076474</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.899333106700474</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-325.6889596734201</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-115.1234156429596</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-157.5622061271307</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>148.807125</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>103.9336049673744</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>214.3377607110064</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>9.183440419707983</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-435.4992998072885</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-871.950290072414</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>106.3225</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>103.9336049673744</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Appui 3</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0021533</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10</v>
+      </c>
+      <c r="V54" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>211.0095</v>
+      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="n">
+        <v>151.58</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>10.22560785262116</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>3.446891000338505</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-316.1527880004328</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-95.77049918591402</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-151.0321059038777</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>211.0095</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>161.1589556656195</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>266.6638612033864</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>12.26246136911086</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-435.5294527068991</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-1028.180152144131</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>151.58</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>13.88284254110232</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>-437.9885848593137</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>161.1589556656195</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Travée 4</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.00225685</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>8</v>
+      </c>
+      <c r="V55" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="W55" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>81.96000000000001</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>41.755</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>81.96000000000001</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>41.755</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>173.2785</v>
+      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="n">
+        <v>123.715</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>81.96000000000001</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>41.755</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>6.523707765192173</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>3.012998424509549</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-213.4851779763525</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-91.24277570935527</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-134.0966065160128</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>173.2785</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>180.6660451465156</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>261.6496220921175</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>8.680630926423373</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-387.0160473597062</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-581.590674609046</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>123.715</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>6.993553337285306</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>-329.8929770535637</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>180.6660451465156</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Appui 4</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>500</v>
+      </c>
+      <c r="G56" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>10</v>
+      </c>
+      <c r="V56" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>228.3135</v>
+      </c>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>164.19</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>12.34451206158309</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.821291608298232</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-374.3434438670067</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-103.7201694930098</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-178.2547067500215</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>228.3135</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>149.1529552080509</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>255.5629475494545</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>14.00890995569064</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-436.2301865015822</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-1454.078567186283</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>164.19</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>149.1529552080509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Travée 5</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.001727925</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>13</v>
+      </c>
+      <c r="V57" t="n">
+        <v>66</v>
+      </c>
+      <c r="W57" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>81.6825</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>81.6825</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>174.981375</v>
+      </c>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="n">
+        <v>124.8225</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>81.6825</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>6.516129734038532</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.916135594742805</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-260.8871534805913</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-101.375891688168</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-139.2810170528936</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>174.981375</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>149.1476959189727</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>289.9492938609911</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>8.206352647211396</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-418.6996962349422</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-584.1657115150043</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>124.8225</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>7.000805070348284</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>-406.6954612355345</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>149.1476959189727</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Appui 5</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>25</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>500</v>
+      </c>
+      <c r="G58" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>15</v>
+      </c>
+      <c r="V58" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>124.825</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>124.825</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>236.89875</v>
+      </c>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="n">
+        <v>170.415</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>124.825</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>11.06788844849055</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>3.284237401844441</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-361.1950422125651</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-92.3219513077091</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-145.4986082153381</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>236.89875</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>162.4999363536099</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>324.718283447367</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>11.95275432050441</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-435.3854205959344</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-966.4737332538266</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>170.415</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>162.4999363536099</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>500</v>
+      </c>
+      <c r="G59" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.001727925</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>13</v>
+      </c>
+      <c r="V59" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>75.83750000000001</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>75.83750000000001</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>159.350625</v>
+      </c>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="n">
+        <v>113.8175</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>75.83750000000001</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>6.049851421114032</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.567334953368839</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-242.218706602814</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-89.25026347511881</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-122.6215351800858</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>159.350625</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>149.1476959189727</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>289.9492938609911</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>7.54568485901792</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-381.1324810450135</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-531.6135503155612</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>113.8175</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>6.432219434014914</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>-370.7050129014956</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>149.1476959189727</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>File B-1 Global</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Appui 6</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>500</v>
+      </c>
+      <c r="G60" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
         <v>0.7804308298384421</v>
       </c>
     </row>
